--- a/Languages.xlsx
+++ b/Languages.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="9555" windowHeight="6480"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="9555" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Javascript" sheetId="1" r:id="rId1"/>
     <sheet name="Misc" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cloud Svc Providers" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cloud Svc Providers'!$A$1:$C$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Javascript!$A$1:$C$47</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
+  <customWorkbookViews>
+    <customWorkbookView name="View1" guid="{7A1B3B55-8985-49C6-B331-B59634D8032B}" includePrintSettings="0" includeHiddenRowCol="0" maximized="1" xWindow="1" yWindow="1" windowWidth="902" windowHeight="449" activeSheetId="1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +49,6 @@
     <t>Yahoo</t>
   </si>
   <si>
-    <t>Web query language</t>
-  </si>
-  <si>
     <t>node-rules</t>
   </si>
   <si>
@@ -52,13 +56,61 @@
   </si>
   <si>
     <t>Node-rules is a light weight forward chaining Rule Engine, written on node.js. (very cool)</t>
+  </si>
+  <si>
+    <t>html5shiv</t>
+  </si>
+  <si>
+    <t>modernizr</t>
+  </si>
+  <si>
+    <t>Add sectioning elements to IE 6-9, Safari 3.x, Firefox 3.x</t>
+  </si>
+  <si>
+    <t>Add HTML5 and CSS3 feature detection</t>
+  </si>
+  <si>
+    <t>Grunt</t>
+  </si>
+  <si>
+    <t>Gulp</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>Build tool</t>
+  </si>
+  <si>
+    <t>Package Manager / Build tool</t>
+  </si>
+  <si>
+    <t>Web query language (could be great for web scraping)</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>What they provide</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>Online IDE, in Ubuntu, easy dev env setup. WordPress, Node, php, HTML5, MeteorJS. Can do Java via a "runner" set up. Can set up a MongoDB or MySQL db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App hosting and support svc. Supports Ruby, Node, Python, Java and PHP. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +125,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,12 +142,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -98,7 +167,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -112,6 +181,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showRuler="0" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,24 +514,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{7A1B3B55-8985-49C6-B331-B59634D8032B}" scale="80" showPageBreaks="1" view="pageLayout">
+      <selection sqref="A1:C47"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.72916666666666663" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;CJavascript Library Notes</oddHeader>
   </headerFooter>
@@ -471,7 +596,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,10 +625,15 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{7A1B3B55-8985-49C6-B331-B59634D8032B}" showPageBreaks="1" view="pageLayout">
+      <selection activeCell="C2" sqref="C2"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
@@ -517,12 +647,282 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="1"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{7A1B3B55-8985-49C6-B331-B59634D8032B}"/>
+  </customSheetViews>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
+    <oddHeader>&amp;CCloud Service Provider Notes</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Languages.xlsx
+++ b/Languages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="9555" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="9555" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Javascript" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cloud Svc Providers'!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Javascript!$A$1:$C$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Misc!$A$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -104,6 +105,24 @@
   </si>
   <si>
     <t xml:space="preserve">App hosting and support svc. Supports Ruby, Node, Python, Java and PHP. </t>
+  </si>
+  <si>
+    <t>PandaDoc PDF API &amp; JS SDK</t>
+  </si>
+  <si>
+    <t>An API / js SDK that allows use of JavaScript to integrate with PDF docs</t>
+  </si>
+  <si>
+    <t>HandlebarsJS</t>
+  </si>
+  <si>
+    <t>MustacheJS</t>
+  </si>
+  <si>
+    <t>View Templating Library. Does not allow helpers or embedded js in views.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Templating Library. Does not allow js within templates, but may use helpers. Handlebars is good in that it can extract html code away from the model code, unless you write conditionals, in which case logic is used in html, which is just as dumb. Con is that the views require use of embedded handlebars proprietary code. Can also be used with a precompiler that requires NodeJS installed. </t>
   </si>
 </sst>
 </file>
@@ -479,17 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -514,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -569,6 +588,30 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +627,7 @@
     <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.72916666666666663" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;CJavascript Library Notes</oddHeader>
   </headerFooter>
@@ -593,17 +636,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -626,6 +669,14 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +689,7 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;CMisc Programming Language Notes</oddHeader>
   </headerFooter>
@@ -649,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
